--- a/data_impute_project/imputation_comparison/combination_1_ABCD/C/10/seed4_imputed_comparison.xlsx
+++ b/data_impute_project/imputation_comparison/combination_1_ABCD/C/10/seed4_imputed_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>RF</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>KNN_Outliers_MAD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SVM_Outliers_MAD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RF_Outliers_MAD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +493,15 @@
       <c r="E2" t="n">
         <v>-10.2806</v>
       </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +521,15 @@
       <c r="E3" t="n">
         <v>-11.66839999999999</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +549,15 @@
       <c r="E4" t="n">
         <v>-12.3072</v>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +577,15 @@
       <c r="E5" t="n">
         <v>-12.28229999999999</v>
       </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +605,15 @@
       <c r="E6" t="n">
         <v>-11.2307</v>
       </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +633,15 @@
       <c r="E7" t="n">
         <v>-12.3221</v>
       </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -591,6 +660,15 @@
       </c>
       <c r="E8" t="n">
         <v>-11.76969999999999</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
